--- a/raw_data/landfill_sum/LandfillSummaryTonnage - 2020.xlsx
+++ b/raw_data/landfill_sum/LandfillSummaryTonnage - 2020.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SummaryTonnage" sheetId="1" r:id="Reb7c483318924445"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SummaryTonnage" sheetId="1" r:id="Rd3c2f32f37e146fd"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -312,10 +312,10 @@
     <x:xf fontId="4" fillId="0" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf fontId="4" fillId="0" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </x:xf>
-    <x:xf fontId="4" fillId="0" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="3" fillId="3" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,7 +353,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R402549e995ba4db4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R3cb6391f226d4208" cstate="print"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -465,970 +465,1077 @@
       </x:c>
     </x:row>
     <x:row ht="11.990547180175781" customHeight="1" collapsed="0">
-      <x:c r="A6" s="8" t="s">
-        <x:v>12</x:v>
-      </x:c>
+      <x:c r="A6" s="8"/>
       <x:c r="B6" s="8"/>
-      <x:c r="C6" s="9" t="n">
-        <x:v>296675</x:v>
-      </x:c>
-      <x:c r="D6" s="9" t="n">
-        <x:v>271586</x:v>
-      </x:c>
-      <x:c r="E6" s="9" t="n">
-        <x:v>307672</x:v>
-      </x:c>
-      <x:c r="F6" s="10"/>
-      <x:c r="G6" s="9" t="n">
-        <x:v>875933</x:v>
+      <x:c r="C6" s="9"/>
+      <x:c r="D6" s="9"/>
+      <x:c r="E6" s="9"/>
+      <x:c r="F6" s="10" t="n">
+        <x:v>120909</x:v>
+      </x:c>
+      <x:c r="G6" s="10" t="n">
+        <x:v>120909</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990547180175781" customHeight="1" collapsed="0">
       <x:c r="A7" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B7" s="8"/>
-      <x:c r="C7" s="9" t="n">
-        <x:v>51657</x:v>
-      </x:c>
-      <x:c r="D7" s="9" t="n">
-        <x:v>39408</x:v>
-      </x:c>
-      <x:c r="E7" s="9" t="n">
-        <x:v>44225</x:v>
-      </x:c>
-      <x:c r="F7" s="10"/>
-      <x:c r="G7" s="9" t="n">
-        <x:v>135290</x:v>
+      <x:c r="C7" s="10" t="n">
+        <x:v>296675</x:v>
+      </x:c>
+      <x:c r="D7" s="10" t="n">
+        <x:v>271586</x:v>
+      </x:c>
+      <x:c r="E7" s="10" t="n">
+        <x:v>307672</x:v>
+      </x:c>
+      <x:c r="F7" s="10" t="n">
+        <x:v>293416</x:v>
+      </x:c>
+      <x:c r="G7" s="10" t="n">
+        <x:v>1169349</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990554809570313" customHeight="1" collapsed="0">
       <x:c r="A8" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B8" s="8"/>
-      <x:c r="C8" s="9" t="n">
-        <x:v>6695</x:v>
-      </x:c>
-      <x:c r="D8" s="9" t="n">
-        <x:v>9181</x:v>
-      </x:c>
-      <x:c r="E8" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F8" s="10"/>
-      <x:c r="G8" s="9" t="n">
-        <x:v>15876</x:v>
+      <x:c r="C8" s="10" t="n">
+        <x:v>51657</x:v>
+      </x:c>
+      <x:c r="D8" s="10" t="n">
+        <x:v>39408</x:v>
+      </x:c>
+      <x:c r="E8" s="10" t="n">
+        <x:v>44225</x:v>
+      </x:c>
+      <x:c r="F8" s="10" t="n">
+        <x:v>37357</x:v>
+      </x:c>
+      <x:c r="G8" s="10" t="n">
+        <x:v>172647</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990554809570313" customHeight="1" collapsed="0">
       <x:c r="A9" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B9" s="8"/>
+      <x:c r="C9" s="10" t="n">
+        <x:v>6695</x:v>
+      </x:c>
+      <x:c r="D9" s="10" t="n">
+        <x:v>9181</x:v>
+      </x:c>
+      <x:c r="E9" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F9" s="10" t="n">
+        <x:v>6464</x:v>
+      </x:c>
+      <x:c r="G9" s="10" t="n">
+        <x:v>22340</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A10" s="8" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B9" s="8"/>
-      <x:c r="C9" s="9" t="n">
+      <x:c r="B10" s="8"/>
+      <x:c r="C10" s="10" t="n">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D9" s="9" t="n">
+      <x:c r="D10" s="10" t="n">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="E9" s="9" t="n">
+      <x:c r="E10" s="10" t="n">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="F9" s="10"/>
-      <x:c r="G9" s="9" t="n">
+      <x:c r="F10" s="9"/>
+      <x:c r="G10" s="10" t="n">
         <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A10" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B10" s="8"/>
-      <x:c r="C10" s="9" t="n">
-        <x:v>193183</x:v>
-      </x:c>
-      <x:c r="D10" s="9" t="n">
-        <x:v>185661</x:v>
-      </x:c>
-      <x:c r="E10" s="9" t="n">
-        <x:v>203079</x:v>
-      </x:c>
-      <x:c r="F10" s="10"/>
-      <x:c r="G10" s="9" t="n">
-        <x:v>581923</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990570068359375" customHeight="1" collapsed="0">
       <x:c r="A11" s="8" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B11" s="8"/>
+      <x:c r="C11" s="10" t="n">
+        <x:v>193183</x:v>
+      </x:c>
+      <x:c r="D11" s="10" t="n">
+        <x:v>185661</x:v>
+      </x:c>
+      <x:c r="E11" s="10" t="n">
+        <x:v>203079</x:v>
+      </x:c>
+      <x:c r="F11" s="10" t="n">
+        <x:v>197366</x:v>
+      </x:c>
+      <x:c r="G11" s="10" t="n">
+        <x:v>779289</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A12" s="8" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B11" s="8"/>
-      <x:c r="C11" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D11" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E11" s="9" t="n">
+      <x:c r="B12" s="8"/>
+      <x:c r="C12" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D12" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E12" s="10" t="n">
         <x:v>318</x:v>
       </x:c>
-      <x:c r="F11" s="10"/>
-      <x:c r="G11" s="9" t="n">
-        <x:v>318</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A12" s="8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B12" s="8"/>
-      <x:c r="C12" s="9" t="n">
-        <x:v>182617</x:v>
-      </x:c>
-      <x:c r="D12" s="9" t="n">
-        <x:v>176649</x:v>
-      </x:c>
-      <x:c r="E12" s="9" t="n">
-        <x:v>189898</x:v>
-      </x:c>
-      <x:c r="F12" s="10"/>
-      <x:c r="G12" s="9" t="n">
-        <x:v>549164</x:v>
+      <x:c r="F12" s="10" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="G12" s="10" t="n">
+        <x:v>618</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990554809570313" customHeight="1" collapsed="0">
       <x:c r="A13" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B13" s="8"/>
-      <x:c r="C13" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D13" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E13" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F13" s="10"/>
-      <x:c r="G13" s="9" t="n">
-        <x:v>0</x:v>
+      <x:c r="C13" s="10" t="n">
+        <x:v>182617</x:v>
+      </x:c>
+      <x:c r="D13" s="10" t="n">
+        <x:v>176649</x:v>
+      </x:c>
+      <x:c r="E13" s="10" t="n">
+        <x:v>189898</x:v>
+      </x:c>
+      <x:c r="F13" s="10" t="n">
+        <x:v>182081</x:v>
+      </x:c>
+      <x:c r="G13" s="10" t="n">
+        <x:v>731245</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990554809570313" customHeight="1" collapsed="0">
       <x:c r="A14" s="8" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B14" s="8"/>
+      <x:c r="C14" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D14" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E14" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F14" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G14" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A15" s="8" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B14" s="8"/>
-      <x:c r="C14" s="9" t="n">
+      <x:c r="B15" s="8"/>
+      <x:c r="C15" s="10" t="n">
         <x:v>77872</x:v>
       </x:c>
-      <x:c r="D14" s="9" t="n">
+      <x:c r="D15" s="10" t="n">
         <x:v>74727</x:v>
       </x:c>
-      <x:c r="E14" s="9" t="n">
+      <x:c r="E15" s="10" t="n">
         <x:v>50544</x:v>
       </x:c>
-      <x:c r="F14" s="10"/>
-      <x:c r="G14" s="9" t="n">
-        <x:v>203143</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A15" s="8" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B15" s="8"/>
-      <x:c r="C15" s="9" t="n">
-        <x:v>5459</x:v>
-      </x:c>
-      <x:c r="D15" s="9" t="n">
-        <x:v>6236</x:v>
-      </x:c>
-      <x:c r="E15" s="9" t="n">
-        <x:v>6619</x:v>
-      </x:c>
-      <x:c r="F15" s="10"/>
-      <x:c r="G15" s="9" t="n">
-        <x:v>18314</x:v>
+      <x:c r="F15" s="10" t="n">
+        <x:v>81704</x:v>
+      </x:c>
+      <x:c r="G15" s="10" t="n">
+        <x:v>284847</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990554809570313" customHeight="1" collapsed="0">
       <x:c r="A16" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B16" s="8"/>
-      <x:c r="C16" s="9" t="n">
-        <x:v>501238</x:v>
-      </x:c>
-      <x:c r="D16" s="9" t="n">
-        <x:v>431162</x:v>
-      </x:c>
-      <x:c r="E16" s="9" t="n">
-        <x:v>412535</x:v>
-      </x:c>
-      <x:c r="F16" s="10"/>
-      <x:c r="G16" s="9" t="n">
-        <x:v>1344935</x:v>
+      <x:c r="C16" s="10" t="n">
+        <x:v>5459</x:v>
+      </x:c>
+      <x:c r="D16" s="10" t="n">
+        <x:v>6236</x:v>
+      </x:c>
+      <x:c r="E16" s="10" t="n">
+        <x:v>6619</x:v>
+      </x:c>
+      <x:c r="F16" s="10" t="n">
+        <x:v>4474</x:v>
+      </x:c>
+      <x:c r="G16" s="10" t="n">
+        <x:v>22788</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990554809570313" customHeight="1" collapsed="0">
       <x:c r="A17" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B17" s="8"/>
-      <x:c r="C17" s="9" t="n">
-        <x:v>38703</x:v>
-      </x:c>
-      <x:c r="D17" s="9" t="n">
-        <x:v>80086</x:v>
-      </x:c>
-      <x:c r="E17" s="9" t="n">
-        <x:v>87868</x:v>
-      </x:c>
-      <x:c r="F17" s="10"/>
-      <x:c r="G17" s="9" t="n">
-        <x:v>206657</x:v>
+      <x:c r="C17" s="10" t="n">
+        <x:v>501238</x:v>
+      </x:c>
+      <x:c r="D17" s="10" t="n">
+        <x:v>431162</x:v>
+      </x:c>
+      <x:c r="E17" s="10" t="n">
+        <x:v>412535</x:v>
+      </x:c>
+      <x:c r="F17" s="10" t="n">
+        <x:v>420974</x:v>
+      </x:c>
+      <x:c r="G17" s="10" t="n">
+        <x:v>1765909</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990554809570313" customHeight="1" collapsed="0">
       <x:c r="A18" s="8" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B18" s="8"/>
+      <x:c r="C18" s="10" t="n">
+        <x:v>38703</x:v>
+      </x:c>
+      <x:c r="D18" s="10" t="n">
+        <x:v>80086</x:v>
+      </x:c>
+      <x:c r="E18" s="10" t="n">
+        <x:v>87868</x:v>
+      </x:c>
+      <x:c r="F18" s="10" t="n">
+        <x:v>91172</x:v>
+      </x:c>
+      <x:c r="G18" s="10" t="n">
+        <x:v>297829</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A19" s="8" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B18" s="8"/>
-      <x:c r="C18" s="9" t="n">
+      <x:c r="B19" s="8"/>
+      <x:c r="C19" s="10" t="n">
         <x:v>13089</x:v>
       </x:c>
-      <x:c r="D18" s="9" t="n">
+      <x:c r="D19" s="10" t="n">
         <x:v>13981</x:v>
       </x:c>
-      <x:c r="E18" s="9" t="n">
+      <x:c r="E19" s="10" t="n">
         <x:v>13925</x:v>
       </x:c>
-      <x:c r="F18" s="10"/>
-      <x:c r="G18" s="9" t="n">
-        <x:v>40995</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A19" s="8" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B19" s="8"/>
-      <x:c r="C19" s="9" t="n">
-        <x:v>5055</x:v>
-      </x:c>
-      <x:c r="D19" s="9" t="n">
-        <x:v>6087</x:v>
-      </x:c>
-      <x:c r="E19" s="9" t="n">
-        <x:v>6130</x:v>
-      </x:c>
-      <x:c r="F19" s="10"/>
-      <x:c r="G19" s="9" t="n">
-        <x:v>17272</x:v>
+      <x:c r="F19" s="10" t="n">
+        <x:v>16176</x:v>
+      </x:c>
+      <x:c r="G19" s="10" t="n">
+        <x:v>57171</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990570068359375" customHeight="1" collapsed="0">
       <x:c r="A20" s="8" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B20" s="8"/>
+      <x:c r="C20" s="10" t="n">
+        <x:v>5055</x:v>
+      </x:c>
+      <x:c r="D20" s="10" t="n">
+        <x:v>6087</x:v>
+      </x:c>
+      <x:c r="E20" s="10" t="n">
+        <x:v>6130</x:v>
+      </x:c>
+      <x:c r="F20" s="10" t="n">
+        <x:v>5069</x:v>
+      </x:c>
+      <x:c r="G20" s="10" t="n">
+        <x:v>22341</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A21" s="8" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B20" s="8"/>
-      <x:c r="C20" s="9" t="n">
+      <x:c r="B21" s="8"/>
+      <x:c r="C21" s="10" t="n">
         <x:v>1527969</x:v>
       </x:c>
-      <x:c r="D20" s="9" t="n">
+      <x:c r="D21" s="10" t="n">
         <x:v>1553805</x:v>
       </x:c>
-      <x:c r="E20" s="9" t="n">
+      <x:c r="E21" s="10" t="n">
         <x:v>1668491</x:v>
       </x:c>
-      <x:c r="F20" s="10"/>
-      <x:c r="G20" s="9" t="n">
-        <x:v>4750265</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A21" s="8" t="s">
+      <x:c r="F21" s="10" t="n">
+        <x:v>1619698</x:v>
+      </x:c>
+      <x:c r="G21" s="10" t="n">
+        <x:v>6369963</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A22" s="8" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B21" s="8"/>
-      <x:c r="C21" s="9" t="n">
+      <x:c r="B22" s="8"/>
+      <x:c r="C22" s="10" t="n">
         <x:v>37635</x:v>
       </x:c>
-      <x:c r="D21" s="9" t="n">
+      <x:c r="D22" s="10" t="n">
         <x:v>55394</x:v>
       </x:c>
-      <x:c r="E21" s="9" t="n">
+      <x:c r="E22" s="10" t="n">
         <x:v>55250</x:v>
       </x:c>
-      <x:c r="F21" s="10"/>
-      <x:c r="G21" s="9" t="n">
-        <x:v>148279</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A22" s="8" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B22" s="8"/>
-      <x:c r="C22" s="9" t="n">
-        <x:v>55590</x:v>
-      </x:c>
-      <x:c r="D22" s="9" t="n">
-        <x:v>55184</x:v>
-      </x:c>
-      <x:c r="E22" s="9" t="n">
-        <x:v>53597</x:v>
-      </x:c>
-      <x:c r="F22" s="10"/>
-      <x:c r="G22" s="9" t="n">
-        <x:v>164371</x:v>
+      <x:c r="F22" s="10" t="n">
+        <x:v>42899</x:v>
+      </x:c>
+      <x:c r="G22" s="10" t="n">
+        <x:v>191178</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990570068359375" customHeight="1" collapsed="0">
       <x:c r="A23" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B23" s="8"/>
+      <x:c r="C23" s="10" t="n">
+        <x:v>55590</x:v>
+      </x:c>
+      <x:c r="D23" s="10" t="n">
+        <x:v>55184</x:v>
+      </x:c>
+      <x:c r="E23" s="10" t="n">
+        <x:v>53597</x:v>
+      </x:c>
+      <x:c r="F23" s="10" t="n">
+        <x:v>58272</x:v>
+      </x:c>
+      <x:c r="G23" s="10" t="n">
+        <x:v>222643</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A24" s="8" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B23" s="8"/>
-      <x:c r="C23" s="9" t="n">
+      <x:c r="B24" s="8"/>
+      <x:c r="C24" s="10" t="n">
         <x:v>2790</x:v>
       </x:c>
-      <x:c r="D23" s="9" t="n">
+      <x:c r="D24" s="10" t="n">
         <x:v>2824</x:v>
       </x:c>
-      <x:c r="E23" s="9" t="n">
+      <x:c r="E24" s="10" t="n">
         <x:v>3238</x:v>
       </x:c>
-      <x:c r="F23" s="10"/>
-      <x:c r="G23" s="9" t="n">
-        <x:v>8852</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A24" s="8" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B24" s="8"/>
-      <x:c r="C24" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D24" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E24" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F24" s="10"/>
-      <x:c r="G24" s="9" t="n">
-        <x:v>0</x:v>
+      <x:c r="F24" s="10" t="n">
+        <x:v>2911</x:v>
+      </x:c>
+      <x:c r="G24" s="10" t="n">
+        <x:v>11763</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990570068359375" customHeight="1" collapsed="0">
       <x:c r="A25" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B25" s="8"/>
+      <x:c r="C25" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D25" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E25" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F25" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G25" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A26" s="8" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B25" s="8"/>
-      <x:c r="C25" s="9" t="n">
+      <x:c r="B26" s="8"/>
+      <x:c r="C26" s="10" t="n">
         <x:v>129114</x:v>
       </x:c>
-      <x:c r="D25" s="9" t="n">
+      <x:c r="D26" s="10" t="n">
         <x:v>119089</x:v>
       </x:c>
-      <x:c r="E25" s="9" t="n">
+      <x:c r="E26" s="10" t="n">
         <x:v>132443</x:v>
       </x:c>
-      <x:c r="F25" s="10"/>
-      <x:c r="G25" s="9" t="n">
-        <x:v>380646</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A26" s="8" t="s">
+      <x:c r="F26" s="10" t="n">
+        <x:v>134701</x:v>
+      </x:c>
+      <x:c r="G26" s="10" t="n">
+        <x:v>515347</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A27" s="8" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B26" s="8"/>
-      <x:c r="C26" s="9" t="n">
+      <x:c r="B27" s="8"/>
+      <x:c r="C27" s="10" t="n">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D26" s="9" t="n">
+      <x:c r="D27" s="10" t="n">
         <x:v>286</x:v>
       </x:c>
-      <x:c r="E26" s="9" t="n">
+      <x:c r="E27" s="10" t="n">
         <x:v>464</x:v>
       </x:c>
-      <x:c r="F26" s="10"/>
-      <x:c r="G26" s="9" t="n">
-        <x:v>806</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A27" s="8" t="s">
+      <x:c r="F27" s="10" t="n">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="G27" s="10" t="n">
+        <x:v>1052</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A28" s="8" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B27" s="8"/>
-      <x:c r="C27" s="9" t="n">
+      <x:c r="B28" s="8"/>
+      <x:c r="C28" s="10" t="n">
         <x:v>4198</x:v>
       </x:c>
-      <x:c r="D27" s="9" t="n">
+      <x:c r="D28" s="10" t="n">
         <x:v>5304</x:v>
       </x:c>
-      <x:c r="E27" s="9" t="n">
+      <x:c r="E28" s="10" t="n">
         <x:v>8110</x:v>
       </x:c>
-      <x:c r="F27" s="10"/>
-      <x:c r="G27" s="9" t="n">
-        <x:v>17612</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A28" s="8" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B28" s="8"/>
-      <x:c r="C28" s="9" t="n">
-        <x:v>214064</x:v>
-      </x:c>
-      <x:c r="D28" s="9" t="n">
-        <x:v>195736</x:v>
-      </x:c>
-      <x:c r="E28" s="9" t="n">
-        <x:v>231240</x:v>
-      </x:c>
-      <x:c r="F28" s="10"/>
-      <x:c r="G28" s="9" t="n">
-        <x:v>641040</x:v>
+      <x:c r="F28" s="10" t="n">
+        <x:v>5511</x:v>
+      </x:c>
+      <x:c r="G28" s="10" t="n">
+        <x:v>23123</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990570068359375" customHeight="1" collapsed="0">
       <x:c r="A29" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B29" s="8"/>
+      <x:c r="C29" s="10" t="n">
+        <x:v>214064</x:v>
+      </x:c>
+      <x:c r="D29" s="10" t="n">
+        <x:v>195736</x:v>
+      </x:c>
+      <x:c r="E29" s="10" t="n">
+        <x:v>231240</x:v>
+      </x:c>
+      <x:c r="F29" s="10" t="n">
+        <x:v>222464</x:v>
+      </x:c>
+      <x:c r="G29" s="10" t="n">
+        <x:v>863504</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A30" s="8" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B29" s="8"/>
-      <x:c r="C29" s="9" t="n">
+      <x:c r="B30" s="8"/>
+      <x:c r="C30" s="10" t="n">
         <x:v>14755</x:v>
       </x:c>
-      <x:c r="D29" s="9" t="n">
+      <x:c r="D30" s="10" t="n">
         <x:v>9767</x:v>
       </x:c>
-      <x:c r="E29" s="9" t="n">
+      <x:c r="E30" s="10" t="n">
         <x:v>9223</x:v>
       </x:c>
-      <x:c r="F29" s="10"/>
-      <x:c r="G29" s="9" t="n">
-        <x:v>33745</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A30" s="8" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B30" s="8"/>
-      <x:c r="C30" s="9" t="n">
-        <x:v>1318426</x:v>
-      </x:c>
-      <x:c r="D30" s="9" t="n">
-        <x:v>1276478</x:v>
-      </x:c>
-      <x:c r="E30" s="9" t="n">
-        <x:v>1295181</x:v>
-      </x:c>
-      <x:c r="F30" s="10"/>
-      <x:c r="G30" s="9" t="n">
-        <x:v>3890085</x:v>
+      <x:c r="F30" s="10" t="n">
+        <x:v>22430</x:v>
+      </x:c>
+      <x:c r="G30" s="10" t="n">
+        <x:v>56175</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990570068359375" customHeight="1" collapsed="0">
       <x:c r="A31" s="8" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B31" s="8"/>
+      <x:c r="C31" s="10" t="n">
+        <x:v>1318426</x:v>
+      </x:c>
+      <x:c r="D31" s="10" t="n">
+        <x:v>1276478</x:v>
+      </x:c>
+      <x:c r="E31" s="10" t="n">
+        <x:v>1295181</x:v>
+      </x:c>
+      <x:c r="F31" s="10" t="n">
+        <x:v>1238961</x:v>
+      </x:c>
+      <x:c r="G31" s="10" t="n">
+        <x:v>5129046</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A32" s="8" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B31" s="8"/>
-      <x:c r="C31" s="9" t="n">
+      <x:c r="B32" s="8"/>
+      <x:c r="C32" s="10" t="n">
         <x:v>71490</x:v>
       </x:c>
-      <x:c r="D31" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E31" s="9" t="n">
+      <x:c r="D32" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E32" s="10" t="n">
         <x:v>74636</x:v>
       </x:c>
-      <x:c r="F31" s="10"/>
-      <x:c r="G31" s="9" t="n">
-        <x:v>146126</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A32" s="8" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B32" s="8"/>
-      <x:c r="C32" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D32" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E32" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F32" s="10"/>
-      <x:c r="G32" s="9" t="n">
-        <x:v>0</x:v>
+      <x:c r="F32" s="10" t="n">
+        <x:v>81555</x:v>
+      </x:c>
+      <x:c r="G32" s="10" t="n">
+        <x:v>227681</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.990570068359375" customHeight="1" collapsed="0">
       <x:c r="A33" s="8" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B33" s="8"/>
+      <x:c r="C33" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D33" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E33" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F33" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G33" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A34" s="8" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B33" s="8"/>
-      <x:c r="C33" s="9" t="n">
+      <x:c r="B34" s="8"/>
+      <x:c r="C34" s="10" t="n">
         <x:v>1168535</x:v>
       </x:c>
-      <x:c r="D33" s="9" t="n">
+      <x:c r="D34" s="10" t="n">
         <x:v>1201789</x:v>
       </x:c>
-      <x:c r="E33" s="9" t="n">
+      <x:c r="E34" s="10" t="n">
         <x:v>1182619</x:v>
       </x:c>
-      <x:c r="F33" s="10"/>
-      <x:c r="G33" s="9" t="n">
-        <x:v>3552943</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A34" s="8" t="s">
+      <x:c r="F34" s="10" t="n">
+        <x:v>1210311</x:v>
+      </x:c>
+      <x:c r="G34" s="10" t="n">
+        <x:v>4763254</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A35" s="8" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B34" s="8"/>
-      <x:c r="C34" s="9" t="n">
+      <x:c r="B35" s="8"/>
+      <x:c r="C35" s="10" t="n">
         <x:v>270552</x:v>
       </x:c>
-      <x:c r="D34" s="9" t="n">
+      <x:c r="D35" s="10" t="n">
         <x:v>284115</x:v>
       </x:c>
-      <x:c r="E34" s="9" t="n">
+      <x:c r="E35" s="10" t="n">
         <x:v>35698</x:v>
       </x:c>
-      <x:c r="F34" s="10"/>
-      <x:c r="G34" s="9" t="n">
-        <x:v>590365</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A35" s="8" t="s">
+      <x:c r="F35" s="10" t="n">
+        <x:v>264324</x:v>
+      </x:c>
+      <x:c r="G35" s="10" t="n">
+        <x:v>854689</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A36" s="8" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B35" s="8"/>
-      <x:c r="C35" s="9" t="n">
+      <x:c r="B36" s="8"/>
+      <x:c r="C36" s="10" t="n">
         <x:v>68569</x:v>
       </x:c>
-      <x:c r="D35" s="9" t="n">
+      <x:c r="D36" s="10" t="n">
         <x:v>61839</x:v>
       </x:c>
-      <x:c r="E35" s="9" t="n">
+      <x:c r="E36" s="10" t="n">
         <x:v>71182</x:v>
       </x:c>
-      <x:c r="F35" s="10"/>
-      <x:c r="G35" s="9" t="n">
-        <x:v>201590</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A36" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B36" s="8"/>
-      <x:c r="C36" s="9" t="n">
-        <x:v>489589</x:v>
-      </x:c>
-      <x:c r="D36" s="9" t="n">
-        <x:v>556158</x:v>
-      </x:c>
-      <x:c r="E36" s="9" t="n">
-        <x:v>476911</x:v>
-      </x:c>
-      <x:c r="F36" s="10"/>
-      <x:c r="G36" s="9" t="n">
-        <x:v>1522658</x:v>
+      <x:c r="F36" s="10" t="n">
+        <x:v>68145</x:v>
+      </x:c>
+      <x:c r="G36" s="10" t="n">
+        <x:v>269735</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.9906005859375" customHeight="1" collapsed="0">
       <x:c r="A37" s="8" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B37" s="8"/>
+      <x:c r="C37" s="10" t="n">
+        <x:v>489589</x:v>
+      </x:c>
+      <x:c r="D37" s="10" t="n">
+        <x:v>556158</x:v>
+      </x:c>
+      <x:c r="E37" s="10" t="n">
+        <x:v>476911</x:v>
+      </x:c>
+      <x:c r="F37" s="10" t="n">
+        <x:v>452638</x:v>
+      </x:c>
+      <x:c r="G37" s="10" t="n">
+        <x:v>1975296</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A38" s="8" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B37" s="8"/>
-      <x:c r="C37" s="9" t="n">
+      <x:c r="B38" s="8"/>
+      <x:c r="C38" s="10" t="n">
         <x:v>765064</x:v>
       </x:c>
-      <x:c r="D37" s="9" t="n">
+      <x:c r="D38" s="10" t="n">
         <x:v>592195</x:v>
       </x:c>
-      <x:c r="E37" s="9" t="n">
+      <x:c r="E38" s="10" t="n">
         <x:v>605429</x:v>
       </x:c>
-      <x:c r="F37" s="10"/>
-      <x:c r="G37" s="9" t="n">
-        <x:v>1962688</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A38" s="8" t="s">
+      <x:c r="F38" s="10" t="n">
+        <x:v>773173</x:v>
+      </x:c>
+      <x:c r="G38" s="10" t="n">
+        <x:v>2735861</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A39" s="8" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B38" s="8"/>
-      <x:c r="C38" s="9" t="n">
+      <x:c r="B39" s="8"/>
+      <x:c r="C39" s="10" t="n">
         <x:v>339365</x:v>
       </x:c>
-      <x:c r="D38" s="9" t="n">
+      <x:c r="D39" s="10" t="n">
         <x:v>343291</x:v>
       </x:c>
-      <x:c r="E38" s="9" t="n">
+      <x:c r="E39" s="10" t="n">
         <x:v>351934</x:v>
       </x:c>
-      <x:c r="F38" s="10"/>
-      <x:c r="G38" s="9" t="n">
-        <x:v>1034590</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A39" s="8" t="s">
+      <x:c r="F39" s="10" t="n">
+        <x:v>367533</x:v>
+      </x:c>
+      <x:c r="G39" s="10" t="n">
+        <x:v>1402123</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A40" s="8" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B39" s="8"/>
-      <x:c r="C39" s="9" t="n">
+      <x:c r="B40" s="8"/>
+      <x:c r="C40" s="10" t="n">
         <x:v>68833</x:v>
       </x:c>
-      <x:c r="D39" s="9" t="n">
+      <x:c r="D40" s="10" t="n">
         <x:v>73025</x:v>
       </x:c>
-      <x:c r="E39" s="9" t="n">
+      <x:c r="E40" s="10" t="n">
         <x:v>76883</x:v>
       </x:c>
-      <x:c r="F39" s="10"/>
-      <x:c r="G39" s="9" t="n">
-        <x:v>218741</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A40" s="8" t="s">
+      <x:c r="F40" s="10" t="n">
+        <x:v>77254</x:v>
+      </x:c>
+      <x:c r="G40" s="10" t="n">
+        <x:v>295995</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A41" s="8" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B40" s="8"/>
-      <x:c r="C40" s="9" t="n">
+      <x:c r="B41" s="8"/>
+      <x:c r="C41" s="10" t="n">
         <x:v>135763</x:v>
       </x:c>
-      <x:c r="D40" s="9" t="n">
+      <x:c r="D41" s="10" t="n">
         <x:v>112804</x:v>
       </x:c>
-      <x:c r="E40" s="9" t="n">
+      <x:c r="E41" s="10" t="n">
         <x:v>130272</x:v>
       </x:c>
-      <x:c r="F40" s="10"/>
-      <x:c r="G40" s="9" t="n">
-        <x:v>378839</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A41" s="8" t="s">
+      <x:c r="F41" s="10" t="n">
+        <x:v>131220</x:v>
+      </x:c>
+      <x:c r="G41" s="10" t="n">
+        <x:v>510059</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A42" s="8" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="B41" s="8"/>
-      <x:c r="C41" s="9" t="n">
+      <x:c r="B42" s="8"/>
+      <x:c r="C42" s="10" t="n">
         <x:v>91247</x:v>
       </x:c>
-      <x:c r="D41" s="9" t="n">
+      <x:c r="D42" s="10" t="n">
         <x:v>100357</x:v>
       </x:c>
-      <x:c r="E41" s="9" t="n">
+      <x:c r="E42" s="10" t="n">
         <x:v>110223</x:v>
       </x:c>
-      <x:c r="F41" s="10"/>
-      <x:c r="G41" s="9" t="n">
-        <x:v>301827</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A42" s="8" t="s">
+      <x:c r="F42" s="10" t="n">
+        <x:v>62800</x:v>
+      </x:c>
+      <x:c r="G42" s="10" t="n">
+        <x:v>364627</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A43" s="8" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B42" s="8"/>
-      <x:c r="C42" s="9" t="n">
+      <x:c r="B43" s="8"/>
+      <x:c r="C43" s="10" t="n">
         <x:v>242249</x:v>
       </x:c>
-      <x:c r="D42" s="9" t="n">
+      <x:c r="D43" s="10" t="n">
         <x:v>219496</x:v>
       </x:c>
-      <x:c r="E42" s="9" t="n">
+      <x:c r="E43" s="10" t="n">
         <x:v>228406</x:v>
       </x:c>
-      <x:c r="F42" s="10"/>
-      <x:c r="G42" s="9" t="n">
-        <x:v>690151</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A43" s="8" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B43" s="8"/>
-      <x:c r="C43" s="9" t="n">
-        <x:v>32979</x:v>
-      </x:c>
-      <x:c r="D43" s="9" t="n">
-        <x:v>37178</x:v>
-      </x:c>
-      <x:c r="E43" s="9" t="n">
-        <x:v>42980</x:v>
-      </x:c>
-      <x:c r="F43" s="10"/>
-      <x:c r="G43" s="9" t="n">
-        <x:v>113137</x:v>
+      <x:c r="F43" s="10" t="n">
+        <x:v>232118</x:v>
+      </x:c>
+      <x:c r="G43" s="10" t="n">
+        <x:v>922269</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.9906005859375" customHeight="1" collapsed="0">
       <x:c r="A44" s="8" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B44" s="8"/>
+      <x:c r="C44" s="10" t="n">
+        <x:v>32979</x:v>
+      </x:c>
+      <x:c r="D44" s="10" t="n">
+        <x:v>37178</x:v>
+      </x:c>
+      <x:c r="E44" s="10" t="n">
+        <x:v>42980</x:v>
+      </x:c>
+      <x:c r="F44" s="10" t="n">
+        <x:v>38038</x:v>
+      </x:c>
+      <x:c r="G44" s="10" t="n">
+        <x:v>151175</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A45" s="8" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B44" s="8"/>
-      <x:c r="C44" s="9" t="n">
+      <x:c r="B45" s="8"/>
+      <x:c r="C45" s="10" t="n">
         <x:v>66539</x:v>
       </x:c>
-      <x:c r="D44" s="9" t="n">
+      <x:c r="D45" s="10" t="n">
         <x:v>77164</x:v>
       </x:c>
-      <x:c r="E44" s="9" t="n">
+      <x:c r="E45" s="10" t="n">
         <x:v>34510</x:v>
       </x:c>
-      <x:c r="F44" s="10"/>
-      <x:c r="G44" s="9" t="n">
-        <x:v>178213</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A45" s="8" t="s">
+      <x:c r="F45" s="10" t="n">
+        <x:v>73404</x:v>
+      </x:c>
+      <x:c r="G45" s="10" t="n">
+        <x:v>251617</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A46" s="8" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B45" s="8"/>
-      <x:c r="C45" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D45" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E45" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F45" s="10"/>
-      <x:c r="G45" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A46" s="8" t="s">
+      <x:c r="B46" s="8"/>
+      <x:c r="C46" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D46" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E46" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F46" s="9"/>
+      <x:c r="G46" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A47" s="8" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B46" s="8"/>
-      <x:c r="C46" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D46" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E46" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F46" s="10"/>
-      <x:c r="G46" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A47" s="8" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="B47" s="8"/>
-      <x:c r="C47" s="9" t="n">
-        <x:v>369410</x:v>
-      </x:c>
-      <x:c r="D47" s="9" t="n">
-        <x:v>357275</x:v>
-      </x:c>
-      <x:c r="E47" s="9" t="n">
-        <x:v>395676</x:v>
-      </x:c>
-      <x:c r="F47" s="10"/>
-      <x:c r="G47" s="9" t="n">
-        <x:v>1122361</x:v>
+      <x:c r="C47" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D47" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E47" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F47" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G47" s="10" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.9906005859375" customHeight="1" collapsed="0">
       <x:c r="A48" s="8" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B48" s="8"/>
+      <x:c r="C48" s="10" t="n">
+        <x:v>369410</x:v>
+      </x:c>
+      <x:c r="D48" s="10" t="n">
+        <x:v>357275</x:v>
+      </x:c>
+      <x:c r="E48" s="10" t="n">
+        <x:v>395676</x:v>
+      </x:c>
+      <x:c r="F48" s="10" t="n">
+        <x:v>410230</x:v>
+      </x:c>
+      <x:c r="G48" s="10" t="n">
+        <x:v>1532591</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A49" s="8" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B48" s="8"/>
-      <x:c r="C48" s="9" t="n">
+      <x:c r="B49" s="8"/>
+      <x:c r="C49" s="10" t="n">
         <x:v>77345</x:v>
       </x:c>
-      <x:c r="D48" s="9" t="n">
+      <x:c r="D49" s="10" t="n">
         <x:v>76225</x:v>
       </x:c>
-      <x:c r="E48" s="9" t="n">
+      <x:c r="E49" s="10" t="n">
         <x:v>81800</x:v>
       </x:c>
-      <x:c r="F48" s="10"/>
-      <x:c r="G48" s="9" t="n">
-        <x:v>235370</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A49" s="8" t="s">
+      <x:c r="F49" s="10" t="n">
+        <x:v>78294</x:v>
+      </x:c>
+      <x:c r="G49" s="10" t="n">
+        <x:v>313664</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A50" s="8" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B49" s="8"/>
-      <x:c r="C49" s="9" t="n">
+      <x:c r="B50" s="8"/>
+      <x:c r="C50" s="10" t="n">
         <x:v>68397</x:v>
       </x:c>
-      <x:c r="D49" s="9" t="n">
+      <x:c r="D50" s="10" t="n">
         <x:v>76260</x:v>
       </x:c>
-      <x:c r="E49" s="9" t="n">
+      <x:c r="E50" s="10" t="n">
         <x:v>72020</x:v>
       </x:c>
-      <x:c r="F49" s="10"/>
-      <x:c r="G49" s="9" t="n">
-        <x:v>216677</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A50" s="8" t="s">
+      <x:c r="F50" s="10" t="n">
+        <x:v>68015</x:v>
+      </x:c>
+      <x:c r="G50" s="10" t="n">
+        <x:v>284692</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A51" s="8" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B50" s="8"/>
-      <x:c r="C50" s="9" t="n">
+      <x:c r="B51" s="8"/>
+      <x:c r="C51" s="10" t="n">
         <x:v>14256</x:v>
       </x:c>
-      <x:c r="D50" s="9" t="n">
+      <x:c r="D51" s="10" t="n">
         <x:v>14968</x:v>
       </x:c>
-      <x:c r="E50" s="9" t="n">
+      <x:c r="E51" s="10" t="n">
         <x:v>14860</x:v>
       </x:c>
-      <x:c r="F50" s="10"/>
-      <x:c r="G50" s="9" t="n">
-        <x:v>44084</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A51" s="8" t="s">
+      <x:c r="F51" s="10" t="n">
+        <x:v>15208</x:v>
+      </x:c>
+      <x:c r="G51" s="10" t="n">
+        <x:v>59292</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A52" s="8" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B51" s="8"/>
-      <x:c r="C51" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D51" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E51" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F51" s="10"/>
-      <x:c r="G51" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A52" s="8" t="s">
+      <x:c r="B52" s="8"/>
+      <x:c r="C52" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D52" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E52" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F52" s="9"/>
+      <x:c r="G52" s="10" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A53" s="8" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B52" s="8"/>
-      <x:c r="C52" s="9" t="n">
+      <x:c r="B53" s="8"/>
+      <x:c r="C53" s="10" t="n">
         <x:v>116917</x:v>
       </x:c>
-      <x:c r="D52" s="9" t="n">
+      <x:c r="D53" s="10" t="n">
         <x:v>127605</x:v>
       </x:c>
-      <x:c r="E52" s="9" t="n">
+      <x:c r="E53" s="10" t="n">
         <x:v>131003</x:v>
       </x:c>
-      <x:c r="F52" s="10"/>
-      <x:c r="G52" s="9" t="n">
-        <x:v>375525</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A53" s="8" t="s">
+      <x:c r="F53" s="10" t="n">
+        <x:v>126283</x:v>
+      </x:c>
+      <x:c r="G53" s="10" t="n">
+        <x:v>501808</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A54" s="8" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B53" s="8"/>
-      <x:c r="C53" s="9" t="n">
+      <x:c r="B54" s="8"/>
+      <x:c r="C54" s="10" t="n">
         <x:v>449193</x:v>
       </x:c>
-      <x:c r="D53" s="9" t="n">
+      <x:c r="D54" s="10" t="n">
         <x:v>430186</x:v>
       </x:c>
-      <x:c r="E53" s="9" t="n">
+      <x:c r="E54" s="10" t="n">
         <x:v>439541</x:v>
       </x:c>
-      <x:c r="F53" s="10"/>
-      <x:c r="G53" s="9" t="n">
-        <x:v>1318920</x:v>
-      </x:c>
-    </x:row>
-    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
-      <x:c r="A54" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B54" s="8"/>
-      <x:c r="C54" s="9" t="n">
-        <x:v>43678</x:v>
-      </x:c>
-      <x:c r="D54" s="9" t="n">
-        <x:v>44062</x:v>
-      </x:c>
-      <x:c r="E54" s="10"/>
-      <x:c r="F54" s="10"/>
-      <x:c r="G54" s="9" t="n">
-        <x:v>87740</x:v>
+      <x:c r="F54" s="10" t="n">
+        <x:v>398217</x:v>
+      </x:c>
+      <x:c r="G54" s="10" t="n">
+        <x:v>1717137</x:v>
       </x:c>
     </x:row>
     <x:row ht="11.9906005859375" customHeight="1" collapsed="0">
       <x:c r="A55" s="8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B55" s="8"/>
+      <x:c r="C55" s="10" t="n">
+        <x:v>43678</x:v>
+      </x:c>
+      <x:c r="D55" s="10" t="n">
+        <x:v>44062</x:v>
+      </x:c>
+      <x:c r="E55" s="9"/>
+      <x:c r="F55" s="9"/>
+      <x:c r="G55" s="10" t="n">
+        <x:v>87740</x:v>
+      </x:c>
+    </x:row>
+    <x:row ht="11.99053955078125" customHeight="1" collapsed="0">
+      <x:c r="A56" s="8" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B55" s="8"/>
-      <x:c r="C55" s="9" t="n">
+      <x:c r="B56" s="8"/>
+      <x:c r="C56" s="10" t="n">
         <x:v>73924</x:v>
       </x:c>
-      <x:c r="D55" s="9" t="n">
+      <x:c r="D56" s="10" t="n">
         <x:v>71032</x:v>
       </x:c>
-      <x:c r="E55" s="9" t="n">
+      <x:c r="E56" s="10" t="n">
         <x:v>88234</x:v>
       </x:c>
-      <x:c r="F55" s="10"/>
-      <x:c r="G55" s="9" t="n">
-        <x:v>233190</x:v>
+      <x:c r="F56" s="10" t="n">
+        <x:v>86866</x:v>
+      </x:c>
+      <x:c r="G56" s="10" t="n">
+        <x:v>320056</x:v>
       </x:c>
     </x:row>
     <x:row ht="14.4000244140625" customHeight="1" collapsed="0">
-      <x:c r="A56" s="7" t="s">
+      <x:c r="A57" s="7" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B56" s="7"/>
-      <x:c r="C56" s="11" t="n">
+      <x:c r="B57" s="7"/>
+      <x:c r="C57" s="11" t="n">
         <x:v>9700802</x:v>
       </x:c>
-      <x:c r="D56" s="11" t="n">
+      <x:c r="D57" s="11" t="n">
         <x:v>9425739</x:v>
       </x:c>
-      <x:c r="E56" s="11" t="n">
+      <x:c r="E57" s="11" t="n">
         <x:v>9424997</x:v>
       </x:c>
-      <x:c r="F56" s="7"/>
-      <x:c r="G56" s="11" t="n">
-        <x:v>28551538</x:v>
+      <x:c r="F57" s="11" t="n">
+        <x:v>9821181</x:v>
+      </x:c>
+      <x:c r="G57" s="11" t="n">
+        <x:v>38372719</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1490,12 +1597,13 @@
     <x:mergeCell ref="A54:B54"/>
     <x:mergeCell ref="A55:B55"/>
     <x:mergeCell ref="A56:B56"/>
+    <x:mergeCell ref="A57:B57"/>
   </x:mergeCells>
   <x:pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <x:pageSetup paperSize="1" orientation="landscape"/>
   <x:headerFooter differentOddEven="0">
-    <x:oddFooter>&amp;L&amp;"Arial"&amp;8 https://www2.calrecycle.ca.gov/LandfillTipFees/ViewReport  Page 1 of 1  Date Generated: October 3, 2021 11:05 PM</x:oddFooter>
+    <x:oddFooter>&amp;L&amp;"Arial"&amp;8 https://www2.calrecycle.ca.gov/LandfillTipFees/ViewReport  Page 1 of 1  Date Generated: December 13, 2021 12:13 AM</x:oddFooter>
   </x:headerFooter>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R402549e995ba4db4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3cb6391f226d4208"/>
 </x:worksheet>
 </file>